--- a/Question_Sets/Role-specific skills/Reinforcement Learning (RL).xlsx
+++ b/Question_Sets/Role-specific skills/Reinforcement Learning (RL).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You're designing a tic-tac-toe agent on a 3x3 board and want to incorporate Markov decision process into its transition logic. The game will be played between two agents, both of which will be in the training process.  How many past completed states should each agent analyze before deciding which move to make?", 'ques_type': 2, 'options': ['1', '2', '3', '9'], 'score': '1'}, {'title': 'You are developing a Q-learning agent to play tic-tac-toe on a 3x3 board. The agent’s actions determine the best cell to place its mark (X or O) during each turn. You want to train the agent by updating its value function. How many states should you include in the Q-table?', 'ques_type': 2, 'options': ['32', '29', '36', '39'], 'score': '39'}, {'title': "You're developing a reinforcement learning agent and have chosen to train it using deep Q-learning. For each decision step, you want to calculate the expected values of actions and choose the one with the highest expected value. Which function should you use in the decision-making step to achieve this configuration?", 'ques_type': 2, 'options': ['Argmax', 'Softmax', 'Sigmoid', 'Tangent-hyperbolic'], 'score': 'Argmax'}, {'title': "You're developing an agent to play a game using maximum entropy reinforcement learning. The game involves rolling a six-sided die to make decisions. You're using a random stochastic variable to represent the possible outcomes and want to calculate its entropy value. What is the rounded entropy value for the described random variable?", 'ques_type': 2, 'options': ['2.59', '6.33', '15.5', '20.17'], 'score': '2.59'}]</t>
+    <t>questions = [
+    {
+        "title": "You're designing a tic-tac-toe agent on a 3x3 board and want to incorporate Markov decision process into its transition logic. The game will be played between two agents, both of which will be in the training process.  How many past completed states should each agent analyze before deciding which move to make?",
+        "ques_type": 2,
+        "options": [
+            "1",
+            "2",
+            "3",
+            "9"
+        ],
+        "score": "1"
+    },
+    {
+        "title": "You are developing a Q-learning agent to play tic-tac-toe on a 3x3 board. The agent\u2019s actions determine the best cell to place its mark (X or O) during each turn. You want to train the agent by updating its value function. How many states should you include in the Q-table?",
+        "ques_type": 2,
+        "options": [
+            "32",
+            "29",
+            "36",
+            "39"
+        ],
+        "score": "39"
+    },
+    {
+        "title": "You're developing a reinforcement learning agent and have chosen to train it using deep Q-learning. For each decision step, you want to calculate the expected values of actions and choose the one with the highest expected value. Which function should you use in the decision-making step to achieve this configuration?",
+        "ques_type": 2,
+        "options": [
+            "Argmax",
+            "Softmax",
+            "Sigmoid",
+            "Tangent-hyperbolic"
+        ],
+        "score": "Argmax"
+    },
+    {
+        "title": "You're developing an agent to play a game using maximum entropy reinforcement learning. The game involves rolling a six-sided die to make decisions. You're using a random stochastic variable to represent the possible outcomes and want to calculate its entropy value. What is the rounded entropy value for the described random variable?",
+        "ques_type": 2,
+        "options": [
+            "2.59",
+            "6.33",
+            "15.5",
+            "20.17"
+        ],
+        "score": "2.59"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
